--- a/CumulativeTestsByTypeByCounty/2021-02-26.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-26.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>46865</v>
+        <v>46908</v>
       </c>
       <c r="C2" s="4">
-        <v>1409</v>
+        <v>1413</v>
       </c>
       <c r="D2" s="4">
-        <v>5591</v>
+        <v>5653</v>
       </c>
       <c r="E2" s="4">
-        <v>53865</v>
+        <v>53974</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3912</v>
+        <v>3924</v>
       </c>
       <c r="C3" s="4">
         <v>199</v>
       </c>
       <c r="D3" s="4">
-        <v>1949</v>
+        <v>1966</v>
       </c>
       <c r="E3" s="4">
-        <v>6060</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>50057</v>
+        <v>50494</v>
       </c>
       <c r="C4" s="4">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="D4" s="4">
-        <v>16661</v>
+        <v>16859</v>
       </c>
       <c r="E4" s="4">
-        <v>68177</v>
+        <v>68818</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6554</v>
+        <v>6585</v>
       </c>
       <c r="C5" s="4">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D5" s="4">
-        <v>4284</v>
+        <v>4310</v>
       </c>
       <c r="E5" s="4">
-        <v>12848</v>
+        <v>12911</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="C6" s="4">
         <v>413</v>
       </c>
       <c r="D6" s="4">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E6" s="4">
-        <v>3564</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C7" s="4">
         <v>211</v>
@@ -1165,7 +1165,7 @@
         <v>116</v>
       </c>
       <c r="E7" s="4">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>46796</v>
+        <v>46859</v>
       </c>
       <c r="C8" s="4">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="4">
-        <v>3552</v>
+        <v>3609</v>
       </c>
       <c r="E8" s="4">
-        <v>51341</v>
+        <v>51468</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>15656</v>
+        <v>15696</v>
       </c>
       <c r="C9" s="4">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D9" s="4">
-        <v>770</v>
+        <v>820</v>
       </c>
       <c r="E9" s="4">
-        <v>16839</v>
+        <v>16933</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="C10" s="4">
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E10" s="4">
-        <v>2141</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6944</v>
+        <v>6959</v>
       </c>
       <c r="C11" s="4">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D11" s="4">
-        <v>2674</v>
+        <v>2785</v>
       </c>
       <c r="E11" s="4">
-        <v>10024</v>
+        <v>10154</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>44501</v>
+        <v>44632</v>
       </c>
       <c r="C12" s="4">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D12" s="4">
-        <v>13150</v>
+        <v>13250</v>
       </c>
       <c r="E12" s="4">
-        <v>58694</v>
+        <v>58926</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1264,10 +1264,10 @@
         <v>117</v>
       </c>
       <c r="D13" s="4">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E13" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>28402</v>
+        <v>28727</v>
       </c>
       <c r="C14" s="4">
-        <v>4916</v>
+        <v>4924</v>
       </c>
       <c r="D14" s="4">
-        <v>5628</v>
+        <v>5698</v>
       </c>
       <c r="E14" s="4">
-        <v>38946</v>
+        <v>39349</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>214371</v>
+        <v>215029</v>
       </c>
       <c r="C15" s="4">
-        <v>12846</v>
+        <v>12864</v>
       </c>
       <c r="D15" s="4">
-        <v>10217</v>
+        <v>10304</v>
       </c>
       <c r="E15" s="4">
-        <v>237434</v>
+        <v>238197</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1618781</v>
+        <v>1623009</v>
       </c>
       <c r="C16" s="4">
-        <v>43523</v>
+        <v>43645</v>
       </c>
       <c r="D16" s="4">
-        <v>150547</v>
+        <v>152359</v>
       </c>
       <c r="E16" s="4">
-        <v>1812851</v>
+        <v>1819013</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5094</v>
+        <v>5104</v>
       </c>
       <c r="C17" s="4">
         <v>223</v>
       </c>
       <c r="D17" s="4">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="E17" s="4">
-        <v>5832</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>8058</v>
+        <v>8078</v>
       </c>
       <c r="C19" s="4">
         <v>459</v>
       </c>
       <c r="D19" s="4">
-        <v>3988</v>
+        <v>3994</v>
       </c>
       <c r="E19" s="4">
-        <v>12505</v>
+        <v>12531</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>54023</v>
+        <v>54152</v>
       </c>
       <c r="C20" s="4">
-        <v>9678</v>
+        <v>9684</v>
       </c>
       <c r="D20" s="4">
-        <v>7839</v>
+        <v>8157</v>
       </c>
       <c r="E20" s="4">
-        <v>71540</v>
+        <v>71993</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>275911</v>
+        <v>277227</v>
       </c>
       <c r="C21" s="4">
-        <v>8574</v>
+        <v>8611</v>
       </c>
       <c r="D21" s="4">
-        <v>24323</v>
+        <v>24668</v>
       </c>
       <c r="E21" s="4">
-        <v>308808</v>
+        <v>310506</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>210702</v>
+        <v>211922</v>
       </c>
       <c r="C22" s="4">
-        <v>5347</v>
+        <v>5369</v>
       </c>
       <c r="D22" s="4">
-        <v>12874</v>
+        <v>13061</v>
       </c>
       <c r="E22" s="4">
-        <v>228923</v>
+        <v>230352</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8348</v>
+        <v>8351</v>
       </c>
       <c r="C23" s="4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D23" s="4">
-        <v>607</v>
+        <v>667</v>
       </c>
       <c r="E23" s="4">
-        <v>9063</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C24" s="4">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D24" s="4">
         <v>57</v>
       </c>
       <c r="E24" s="4">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>12710</v>
+        <v>12725</v>
       </c>
       <c r="C25" s="4">
-        <v>1258</v>
+        <v>1265</v>
       </c>
       <c r="D25" s="4">
-        <v>1428</v>
+        <v>1508</v>
       </c>
       <c r="E25" s="4">
-        <v>15396</v>
+        <v>15498</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>15468</v>
+        <v>15556</v>
       </c>
       <c r="C26" s="4">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D26" s="4">
-        <v>15058</v>
+        <v>15117</v>
       </c>
       <c r="E26" s="4">
-        <v>31255</v>
+        <v>31406</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>12450</v>
+        <v>12493</v>
       </c>
       <c r="C27" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D27" s="4">
-        <v>1810</v>
+        <v>1857</v>
       </c>
       <c r="E27" s="4">
-        <v>14490</v>
+        <v>14581</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>28995</v>
+        <v>29129</v>
       </c>
       <c r="C28" s="4">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D28" s="4">
-        <v>2590</v>
+        <v>2642</v>
       </c>
       <c r="E28" s="4">
-        <v>32606</v>
+        <v>32794</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>28704</v>
+        <v>28764</v>
       </c>
       <c r="C29" s="4">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="D29" s="4">
-        <v>4464</v>
+        <v>4504</v>
       </c>
       <c r="E29" s="4">
-        <v>34667</v>
+        <v>34769</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>12221</v>
+        <v>12262</v>
       </c>
       <c r="C30" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D30" s="4">
-        <v>3803</v>
+        <v>3833</v>
       </c>
       <c r="E30" s="4">
-        <v>16322</v>
+        <v>16394</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4752</v>
+        <v>4756</v>
       </c>
       <c r="C31" s="4">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" s="4">
-        <v>4215</v>
+        <v>4249</v>
       </c>
       <c r="E31" s="4">
-        <v>9182</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>221132</v>
+        <v>222075</v>
       </c>
       <c r="C32" s="4">
-        <v>7274</v>
+        <v>7294</v>
       </c>
       <c r="D32" s="4">
-        <v>34742</v>
+        <v>35561</v>
       </c>
       <c r="E32" s="4">
-        <v>263148</v>
+        <v>264930</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5309</v>
+        <v>5325</v>
       </c>
       <c r="C33" s="4">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D33" s="4">
-        <v>1401</v>
+        <v>1442</v>
       </c>
       <c r="E33" s="4">
-        <v>7059</v>
+        <v>7117</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="C34" s="4">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D34" s="4">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E34" s="4">
-        <v>2475</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>11014</v>
+        <v>11036</v>
       </c>
       <c r="C35" s="4">
-        <v>3084</v>
+        <v>3090</v>
       </c>
       <c r="D35" s="4">
-        <v>2715</v>
+        <v>2754</v>
       </c>
       <c r="E35" s="4">
-        <v>16813</v>
+        <v>16880</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3601</v>
+        <v>3603</v>
       </c>
       <c r="C36" s="4">
         <v>216</v>
       </c>
       <c r="D36" s="4">
-        <v>1575</v>
+        <v>1590</v>
       </c>
       <c r="E36" s="4">
-        <v>5392</v>
+        <v>5409</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>7101</v>
+        <v>7118</v>
       </c>
       <c r="C37" s="4">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D37" s="4">
-        <v>1025</v>
+        <v>1116</v>
       </c>
       <c r="E37" s="4">
-        <v>8663</v>
+        <v>8773</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>20570</v>
+        <v>20621</v>
       </c>
       <c r="C38" s="4">
         <v>730</v>
       </c>
       <c r="D38" s="4">
-        <v>6173</v>
+        <v>6192</v>
       </c>
       <c r="E38" s="4">
-        <v>27473</v>
+        <v>27543</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1706,10 +1706,10 @@
         <v>297</v>
       </c>
       <c r="D39" s="4">
-        <v>3940</v>
+        <v>3943</v>
       </c>
       <c r="E39" s="4">
-        <v>6869</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3805</v>
+        <v>3809</v>
       </c>
       <c r="C40" s="4">
         <v>360</v>
       </c>
       <c r="D40" s="4">
-        <v>1099</v>
+        <v>1115</v>
       </c>
       <c r="E40" s="4">
-        <v>5264</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C41" s="4">
         <v>15</v>
       </c>
       <c r="D41" s="4">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E41" s="4">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="C42" s="4">
         <v>23</v>
       </c>
       <c r="D42" s="4">
-        <v>1681</v>
+        <v>1686</v>
       </c>
       <c r="E42" s="4">
-        <v>3394</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2870</v>
+        <v>2877</v>
       </c>
       <c r="C43" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D43" s="4">
-        <v>2248</v>
+        <v>2256</v>
       </c>
       <c r="E43" s="4">
-        <v>5198</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>785237</v>
+        <v>788150</v>
       </c>
       <c r="C44" s="4">
-        <v>75160</v>
+        <v>75367</v>
       </c>
       <c r="D44" s="4">
-        <v>71330</v>
+        <v>72077</v>
       </c>
       <c r="E44" s="4">
-        <v>931727</v>
+        <v>935594</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C45" s="4">
         <v>87</v>
       </c>
       <c r="D45" s="4">
-        <v>1164</v>
+        <v>1202</v>
       </c>
       <c r="E45" s="4">
-        <v>2218</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10652</v>
+        <v>10717</v>
       </c>
       <c r="C46" s="4">
         <v>260</v>
       </c>
       <c r="D46" s="4">
-        <v>3102</v>
+        <v>3123</v>
       </c>
       <c r="E46" s="4">
-        <v>14014</v>
+        <v>14100</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>84437</v>
+        <v>84748</v>
       </c>
       <c r="C47" s="4">
-        <v>6596</v>
+        <v>6612</v>
       </c>
       <c r="D47" s="4">
-        <v>14813</v>
+        <v>15013</v>
       </c>
       <c r="E47" s="4">
-        <v>105846</v>
+        <v>106373</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6065</v>
+        <v>6086</v>
       </c>
       <c r="C48" s="4">
         <v>291</v>
       </c>
       <c r="D48" s="4">
-        <v>1970</v>
+        <v>1981</v>
       </c>
       <c r="E48" s="4">
-        <v>8326</v>
+        <v>8358</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="C49" s="4">
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="E49" s="4">
-        <v>2666</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>21350</v>
+        <v>21426</v>
       </c>
       <c r="C50" s="4">
-        <v>1232</v>
+        <v>1239</v>
       </c>
       <c r="D50" s="4">
-        <v>3977</v>
+        <v>4001</v>
       </c>
       <c r="E50" s="4">
-        <v>26559</v>
+        <v>26666</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>76189</v>
+        <v>76510</v>
       </c>
       <c r="C51" s="4">
-        <v>2097</v>
+        <v>2102</v>
       </c>
       <c r="D51" s="4">
-        <v>2655</v>
+        <v>2678</v>
       </c>
       <c r="E51" s="4">
-        <v>80941</v>
+        <v>81290</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C52" s="4">
         <v>20</v>
       </c>
       <c r="D52" s="4">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E52" s="4">
-        <v>1294</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4179</v>
+        <v>4181</v>
       </c>
       <c r="C53" s="4">
         <v>64</v>
       </c>
       <c r="D53" s="4">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="E53" s="4">
-        <v>5252</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="4">
-        <v>1776</v>
+        <v>1785</v>
       </c>
       <c r="E54" s="4">
-        <v>2711</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2270</v>
+        <v>2285</v>
       </c>
       <c r="C55" s="4">
         <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="E55" s="4">
-        <v>3685</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
       </c>
       <c r="D56" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E56" s="4">
-        <v>2191</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C57" s="4">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D57" s="4">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="E57" s="4">
-        <v>2683</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2005720</v>
+        <v>2012559</v>
       </c>
       <c r="C58" s="4">
-        <v>123705</v>
+        <v>124029</v>
       </c>
       <c r="D58" s="4">
-        <v>149927</v>
+        <v>151536</v>
       </c>
       <c r="E58" s="4">
-        <v>2279352</v>
+        <v>2288124</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>7188</v>
+        <v>7197</v>
       </c>
       <c r="C59" s="4">
         <v>433</v>
       </c>
       <c r="D59" s="4">
-        <v>1865</v>
+        <v>1871</v>
       </c>
       <c r="E59" s="4">
-        <v>9486</v>
+        <v>9501</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>7988</v>
+        <v>8006</v>
       </c>
       <c r="C60" s="4">
         <v>206</v>
       </c>
       <c r="D60" s="4">
-        <v>2093</v>
+        <v>2103</v>
       </c>
       <c r="E60" s="4">
-        <v>10287</v>
+        <v>10315</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4286</v>
+        <v>4295</v>
       </c>
       <c r="C61" s="4">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D61" s="4">
-        <v>1770</v>
+        <v>1777</v>
       </c>
       <c r="E61" s="4">
-        <v>6766</v>
+        <v>6786</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1584</v>
+        <v>1589</v>
       </c>
       <c r="C62" s="4">
         <v>208</v>
       </c>
       <c r="D62" s="4">
-        <v>911</v>
+        <v>918</v>
       </c>
       <c r="E62" s="4">
-        <v>2703</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>489609</v>
+        <v>491473</v>
       </c>
       <c r="C63" s="4">
-        <v>55402</v>
+        <v>55546</v>
       </c>
       <c r="D63" s="4">
-        <v>63684</v>
+        <v>64173</v>
       </c>
       <c r="E63" s="4">
-        <v>608695</v>
+        <v>611192</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C64" s="4">
         <v>7</v>
       </c>
       <c r="D64" s="4">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E64" s="4">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>9127</v>
+        <v>9138</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E65" s="4">
-        <v>9963</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C66" s="4">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D66" s="4">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E66" s="4">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15575</v>
+        <v>15600</v>
       </c>
       <c r="C67" s="4">
-        <v>2170</v>
+        <v>2175</v>
       </c>
       <c r="D67" s="4">
-        <v>1329</v>
+        <v>1417</v>
       </c>
       <c r="E67" s="4">
-        <v>19074</v>
+        <v>19192</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4292</v>
+        <v>4307</v>
       </c>
       <c r="C68" s="4">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D68" s="4">
-        <v>3041</v>
+        <v>3058</v>
       </c>
       <c r="E68" s="4">
-        <v>7664</v>
+        <v>7699</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>53987</v>
+        <v>54057</v>
       </c>
       <c r="C69" s="4">
-        <v>4275</v>
+        <v>4307</v>
       </c>
       <c r="D69" s="4">
-        <v>13951</v>
+        <v>14189</v>
       </c>
       <c r="E69" s="4">
-        <v>72213</v>
+        <v>72553</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2233,10 +2233,10 @@
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E70" s="4">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>760925</v>
+        <v>763731</v>
       </c>
       <c r="C71" s="4">
-        <v>15814</v>
+        <v>15861</v>
       </c>
       <c r="D71" s="4">
-        <v>148634</v>
+        <v>162208</v>
       </c>
       <c r="E71" s="4">
-        <v>925373</v>
+        <v>941800</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>144243</v>
+        <v>144737</v>
       </c>
       <c r="C72" s="4">
-        <v>6658</v>
+        <v>6683</v>
       </c>
       <c r="D72" s="4">
-        <v>8041</v>
+        <v>8150</v>
       </c>
       <c r="E72" s="4">
-        <v>158942</v>
+        <v>159570</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>15789</v>
+        <v>15884</v>
       </c>
       <c r="C73" s="4">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D73" s="4">
-        <v>5063</v>
+        <v>5156</v>
       </c>
       <c r="E73" s="4">
-        <v>21921</v>
+        <v>22111</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11390</v>
+        <v>11408</v>
       </c>
       <c r="C74" s="4">
         <v>392</v>
       </c>
       <c r="D74" s="4">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="E74" s="4">
-        <v>13237</v>
+        <v>13261</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>22412</v>
+        <v>22567</v>
       </c>
       <c r="C75" s="4">
         <v>734</v>
       </c>
       <c r="D75" s="4">
-        <v>3892</v>
+        <v>3923</v>
       </c>
       <c r="E75" s="4">
-        <v>27038</v>
+        <v>27224</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12495</v>
+        <v>12540</v>
       </c>
       <c r="C76" s="4">
         <v>366</v>
       </c>
       <c r="D76" s="4">
-        <v>1662</v>
+        <v>1683</v>
       </c>
       <c r="E76" s="4">
-        <v>14523</v>
+        <v>14589</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="C77" s="4">
         <v>28</v>
       </c>
       <c r="D77" s="4">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E77" s="4">
-        <v>1519</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2096</v>
+        <v>2104</v>
       </c>
       <c r="C78" s="4">
         <v>109</v>
       </c>
       <c r="D78" s="4">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E78" s="4">
-        <v>2500</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C79" s="4">
         <v>77</v>
       </c>
       <c r="D79" s="4">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="E79" s="4">
-        <v>1096</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>556214</v>
+        <v>558577</v>
       </c>
       <c r="C80" s="4">
-        <v>20710</v>
+        <v>20781</v>
       </c>
       <c r="D80" s="4">
-        <v>25952</v>
+        <v>26628</v>
       </c>
       <c r="E80" s="4">
-        <v>602876</v>
+        <v>605986</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3911</v>
+        <v>3937</v>
       </c>
       <c r="C81" s="4">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D81" s="4">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="E81" s="4">
-        <v>4964</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12606</v>
+        <v>12683</v>
       </c>
       <c r="C82" s="4">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="D82" s="4">
-        <v>3572</v>
+        <v>3583</v>
       </c>
       <c r="E82" s="4">
-        <v>16816</v>
+        <v>16907</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>14813</v>
+        <v>14869</v>
       </c>
       <c r="C83" s="4">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D83" s="4">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="E83" s="4">
-        <v>15806</v>
+        <v>15894</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3055</v>
+        <v>3066</v>
       </c>
       <c r="C84" s="4">
         <v>204</v>
       </c>
       <c r="D84" s="4">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="E84" s="4">
-        <v>3966</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>297876</v>
+        <v>298948</v>
       </c>
       <c r="C85" s="4">
-        <v>8845</v>
+        <v>8890</v>
       </c>
       <c r="D85" s="4">
-        <v>19936</v>
+        <v>20272</v>
       </c>
       <c r="E85" s="4">
-        <v>326657</v>
+        <v>328110</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1545</v>
+        <v>1557</v>
       </c>
       <c r="C86" s="4">
         <v>46</v>
       </c>
       <c r="D86" s="4">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="E86" s="4">
-        <v>2865</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14494</v>
+        <v>14514</v>
       </c>
       <c r="C87" s="4">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D87" s="4">
-        <v>2811</v>
+        <v>2828</v>
       </c>
       <c r="E87" s="4">
-        <v>17649</v>
+        <v>17689</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,16 +2533,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C88" s="4">
         <v>27</v>
       </c>
       <c r="D88" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E88" s="4">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2364</v>
+        <v>2371</v>
       </c>
       <c r="C89" s="4">
         <v>147</v>
       </c>
       <c r="D89" s="4">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="E89" s="4">
-        <v>3976</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11607</v>
+        <v>11633</v>
       </c>
       <c r="C90" s="4">
         <v>287</v>
       </c>
       <c r="D90" s="4">
-        <v>2926</v>
+        <v>2953</v>
       </c>
       <c r="E90" s="4">
-        <v>14820</v>
+        <v>14873</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6895</v>
+        <v>6912</v>
       </c>
       <c r="C91" s="4">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="D91" s="4">
-        <v>1563</v>
+        <v>1593</v>
       </c>
       <c r="E91" s="4">
-        <v>9270</v>
+        <v>9321</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>90114</v>
+        <v>91560</v>
       </c>
       <c r="C92" s="4">
-        <v>3553</v>
+        <v>3579</v>
       </c>
       <c r="D92" s="4">
-        <v>10339</v>
+        <v>10388</v>
       </c>
       <c r="E92" s="4">
-        <v>104006</v>
+        <v>105527</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>43030</v>
+        <v>43239</v>
       </c>
       <c r="C93" s="4">
-        <v>9620</v>
+        <v>9680</v>
       </c>
       <c r="D93" s="4">
-        <v>12559</v>
+        <v>12682</v>
       </c>
       <c r="E93" s="4">
-        <v>65209</v>
+        <v>65601</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>24372</v>
+        <v>24870</v>
       </c>
       <c r="C94" s="4">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D94" s="4">
-        <v>1773</v>
+        <v>1815</v>
       </c>
       <c r="E94" s="4">
-        <v>26603</v>
+        <v>27144</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>67489</v>
+        <v>67657</v>
       </c>
       <c r="C95" s="4">
-        <v>3069</v>
+        <v>3076</v>
       </c>
       <c r="D95" s="4">
-        <v>12553</v>
+        <v>12700</v>
       </c>
       <c r="E95" s="4">
-        <v>83111</v>
+        <v>83433</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11903</v>
+        <v>11938</v>
       </c>
       <c r="C96" s="4">
         <v>270</v>
       </c>
       <c r="D96" s="4">
-        <v>1817</v>
+        <v>1834</v>
       </c>
       <c r="E96" s="4">
-        <v>13990</v>
+        <v>14042</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="C97" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" s="4">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E97" s="4">
-        <v>3052</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4527</v>
+        <v>4541</v>
       </c>
       <c r="C98" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D98" s="4">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="E98" s="4">
-        <v>5809</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C100" s="4">
         <v>178</v>
       </c>
       <c r="D100" s="4">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="E100" s="4">
-        <v>2405</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>17688</v>
+        <v>17815</v>
       </c>
       <c r="C101" s="4">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="D101" s="4">
-        <v>4963</v>
+        <v>5004</v>
       </c>
       <c r="E101" s="4">
-        <v>25749</v>
+        <v>25919</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3406760</v>
+        <v>3419908</v>
       </c>
       <c r="C102" s="4">
-        <v>125290</v>
+        <v>125835</v>
       </c>
       <c r="D102" s="4">
-        <v>223636</v>
+        <v>226205</v>
       </c>
       <c r="E102" s="4">
-        <v>3755686</v>
+        <v>3771948</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>52725</v>
+        <v>52828</v>
       </c>
       <c r="C103" s="4">
-        <v>7119</v>
+        <v>7168</v>
       </c>
       <c r="D103" s="4">
-        <v>7125</v>
+        <v>7179</v>
       </c>
       <c r="E103" s="4">
-        <v>66969</v>
+        <v>67175</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2828,10 +2828,10 @@
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="E105" s="4">
-        <v>2454</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>200055</v>
+        <v>200765</v>
       </c>
       <c r="C106" s="4">
-        <v>9977</v>
+        <v>9997</v>
       </c>
       <c r="D106" s="4">
-        <v>11363</v>
+        <v>11569</v>
       </c>
       <c r="E106" s="4">
-        <v>221395</v>
+        <v>222331</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C107" s="4">
         <v>353</v>
       </c>
       <c r="D107" s="4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E107" s="4">
-        <v>1366</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>23817</v>
+        <v>23866</v>
       </c>
       <c r="C108" s="4">
-        <v>2051</v>
+        <v>2056</v>
       </c>
       <c r="D108" s="4">
-        <v>6035</v>
+        <v>6098</v>
       </c>
       <c r="E108" s="4">
-        <v>31903</v>
+        <v>32020</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>391056</v>
+        <v>392200</v>
       </c>
       <c r="C109" s="4">
-        <v>14133</v>
+        <v>14189</v>
       </c>
       <c r="D109" s="4">
-        <v>82615</v>
+        <v>88157</v>
       </c>
       <c r="E109" s="4">
-        <v>487804</v>
+        <v>494546</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>29995</v>
+        <v>30027</v>
       </c>
       <c r="C110" s="4">
         <v>959</v>
       </c>
       <c r="D110" s="4">
-        <v>4765</v>
+        <v>4815</v>
       </c>
       <c r="E110" s="4">
-        <v>35719</v>
+        <v>35801</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>7041</v>
+        <v>7067</v>
       </c>
       <c r="C111" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D111" s="4">
-        <v>2694</v>
+        <v>2755</v>
       </c>
       <c r="E111" s="4">
-        <v>9814</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>31351</v>
+        <v>31430</v>
       </c>
       <c r="C112" s="4">
-        <v>2265</v>
+        <v>2273</v>
       </c>
       <c r="D112" s="4">
-        <v>15970</v>
+        <v>16189</v>
       </c>
       <c r="E112" s="4">
-        <v>49586</v>
+        <v>49892</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>15245</v>
+        <v>15296</v>
       </c>
       <c r="C113" s="4">
         <v>1814</v>
       </c>
       <c r="D113" s="4">
-        <v>2393</v>
+        <v>2452</v>
       </c>
       <c r="E113" s="4">
-        <v>19452</v>
+        <v>19562</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13852</v>
+        <v>13886</v>
       </c>
       <c r="C114" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D114" s="4">
-        <v>2248</v>
+        <v>2345</v>
       </c>
       <c r="E114" s="4">
-        <v>16425</v>
+        <v>16557</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>14405</v>
+        <v>14440</v>
       </c>
       <c r="C115" s="4">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D115" s="4">
-        <v>3503</v>
+        <v>3527</v>
       </c>
       <c r="E115" s="4">
-        <v>18342</v>
+        <v>18403</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="C116" s="4">
         <v>32</v>
       </c>
       <c r="D116" s="4">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E116" s="4">
-        <v>3233</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>67247</v>
+        <v>67557</v>
       </c>
       <c r="C117" s="4">
-        <v>3434</v>
+        <v>3448</v>
       </c>
       <c r="D117" s="4">
-        <v>7828</v>
+        <v>7932</v>
       </c>
       <c r="E117" s="4">
-        <v>78509</v>
+        <v>78937</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7982</v>
+        <v>7992</v>
       </c>
       <c r="C118" s="4">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D118" s="4">
-        <v>2928</v>
+        <v>3024</v>
       </c>
       <c r="E118" s="4">
-        <v>11988</v>
+        <v>12095</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,13 +3063,13 @@
         <v>332</v>
       </c>
       <c r="C119" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="4">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E119" s="4">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1572</v>
+        <v>1579</v>
       </c>
       <c r="C120" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D120" s="4">
         <v>261</v>
       </c>
       <c r="E120" s="4">
-        <v>2001</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6402</v>
+        <v>6420</v>
       </c>
       <c r="C121" s="4">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D121" s="4">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="E121" s="4">
-        <v>7504</v>
+        <v>7536</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11946</v>
+        <v>12028</v>
       </c>
       <c r="C122" s="4">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="D122" s="4">
-        <v>2852</v>
+        <v>2885</v>
       </c>
       <c r="E122" s="4">
-        <v>17290</v>
+        <v>17409</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="C123" s="4">
         <v>29</v>
       </c>
       <c r="D123" s="4">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E123" s="4">
-        <v>1948</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>143695</v>
+        <v>144044</v>
       </c>
       <c r="C124" s="4">
-        <v>11692</v>
+        <v>11711</v>
       </c>
       <c r="D124" s="4">
-        <v>26311</v>
+        <v>26538</v>
       </c>
       <c r="E124" s="4">
-        <v>181698</v>
+        <v>182293</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>12220</v>
+        <v>12263</v>
       </c>
       <c r="C125" s="4">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D125" s="4">
-        <v>3113</v>
+        <v>3139</v>
       </c>
       <c r="E125" s="4">
-        <v>15808</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>42734</v>
+        <v>42839</v>
       </c>
       <c r="C126" s="4">
-        <v>7027</v>
+        <v>7050</v>
       </c>
       <c r="D126" s="4">
-        <v>11273</v>
+        <v>11524</v>
       </c>
       <c r="E126" s="4">
-        <v>61034</v>
+        <v>61413</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>103267</v>
+        <v>103531</v>
       </c>
       <c r="C127" s="4">
-        <v>6172</v>
+        <v>6186</v>
       </c>
       <c r="D127" s="4">
-        <v>11834</v>
+        <v>11887</v>
       </c>
       <c r="E127" s="4">
-        <v>121273</v>
+        <v>121604</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5441</v>
+        <v>5456</v>
       </c>
       <c r="C128" s="4">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D128" s="4">
-        <v>2360</v>
+        <v>2374</v>
       </c>
       <c r="E128" s="4">
-        <v>7989</v>
+        <v>8020</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>12259</v>
+        <v>12271</v>
       </c>
       <c r="C129" s="4">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D129" s="4">
-        <v>3902</v>
+        <v>3912</v>
       </c>
       <c r="E129" s="4">
-        <v>16545</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>90094</v>
+        <v>90389</v>
       </c>
       <c r="C130" s="4">
-        <v>4807</v>
+        <v>4818</v>
       </c>
       <c r="D130" s="4">
-        <v>12594</v>
+        <v>12794</v>
       </c>
       <c r="E130" s="4">
-        <v>107495</v>
+        <v>108001</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>20060</v>
+        <v>20120</v>
       </c>
       <c r="C131" s="4">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="D131" s="4">
-        <v>6243</v>
+        <v>6397</v>
       </c>
       <c r="E131" s="4">
-        <v>27527</v>
+        <v>27744</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E133" s="4">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>27794</v>
+        <v>27833</v>
       </c>
       <c r="C134" s="4">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="D134" s="4">
-        <v>16415</v>
+        <v>16521</v>
       </c>
       <c r="E134" s="4">
-        <v>44786</v>
+        <v>44937</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="C135" s="4">
         <v>37</v>
       </c>
       <c r="D135" s="4">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E135" s="4">
-        <v>1829</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="C137" s="4">
         <v>41</v>
       </c>
       <c r="D137" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E137" s="4">
-        <v>2027</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>23855</v>
+        <v>23919</v>
       </c>
       <c r="C138" s="4">
-        <v>3944</v>
+        <v>3964</v>
       </c>
       <c r="D138" s="4">
-        <v>4983</v>
+        <v>5087</v>
       </c>
       <c r="E138" s="4">
-        <v>32782</v>
+        <v>32970</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>39</v>
       </c>
       <c r="D139" s="4">
-        <v>2300</v>
+        <v>2305</v>
       </c>
       <c r="E139" s="4">
-        <v>2967</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6438</v>
+        <v>6446</v>
       </c>
       <c r="C140" s="4">
         <v>276</v>
       </c>
       <c r="D140" s="4">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E140" s="4">
-        <v>6930</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>19671</v>
+        <v>19764</v>
       </c>
       <c r="C141" s="4">
-        <v>2057</v>
+        <v>2063</v>
       </c>
       <c r="D141" s="4">
-        <v>2636</v>
+        <v>2660</v>
       </c>
       <c r="E141" s="4">
-        <v>24364</v>
+        <v>24487</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5138</v>
+        <v>5151</v>
       </c>
       <c r="C142" s="4">
         <v>84</v>
       </c>
       <c r="D142" s="4">
-        <v>3766</v>
+        <v>3781</v>
       </c>
       <c r="E142" s="4">
-        <v>8988</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>14495</v>
+        <v>14545</v>
       </c>
       <c r="C143" s="4">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D143" s="4">
-        <v>2786</v>
+        <v>2799</v>
       </c>
       <c r="E143" s="4">
-        <v>17874</v>
+        <v>17938</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>10373</v>
+        <v>10395</v>
       </c>
       <c r="C144" s="4">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D144" s="4">
-        <v>2318</v>
+        <v>2331</v>
       </c>
       <c r="E144" s="4">
-        <v>13099</v>
+        <v>13137</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>7131</v>
+        <v>7161</v>
       </c>
       <c r="C145" s="4">
         <v>207</v>
       </c>
       <c r="D145" s="4">
-        <v>2270</v>
+        <v>2290</v>
       </c>
       <c r="E145" s="4">
-        <v>9608</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8378</v>
+        <v>8413</v>
       </c>
       <c r="C146" s="4">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D146" s="4">
-        <v>1327</v>
+        <v>1345</v>
       </c>
       <c r="E146" s="4">
-        <v>10169</v>
+        <v>10225</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>45520</v>
+        <v>45741</v>
       </c>
       <c r="C147" s="4">
-        <v>2866</v>
+        <v>2870</v>
       </c>
       <c r="D147" s="4">
-        <v>4386</v>
+        <v>4429</v>
       </c>
       <c r="E147" s="4">
-        <v>52772</v>
+        <v>53040</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>26815</v>
+        <v>27001</v>
       </c>
       <c r="C148" s="4">
         <v>566</v>
       </c>
       <c r="D148" s="4">
-        <v>4167</v>
+        <v>4180</v>
       </c>
       <c r="E148" s="4">
-        <v>31548</v>
+        <v>31747</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3573,13 +3573,13 @@
         <v>240</v>
       </c>
       <c r="C149" s="4">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D149" s="4">
         <v>79</v>
       </c>
       <c r="E149" s="4">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4584</v>
+        <v>4595</v>
       </c>
       <c r="C150" s="4">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D150" s="4">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="E150" s="4">
-        <v>6027</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8869</v>
+        <v>8905</v>
       </c>
       <c r="C151" s="4">
         <v>311</v>
       </c>
       <c r="D151" s="4">
-        <v>735</v>
+        <v>971</v>
       </c>
       <c r="E151" s="4">
-        <v>9915</v>
+        <v>10187</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>178135</v>
+        <v>179213</v>
       </c>
       <c r="C153" s="4">
-        <v>6246</v>
+        <v>6259</v>
       </c>
       <c r="D153" s="4">
-        <v>80015</v>
+        <v>80675</v>
       </c>
       <c r="E153" s="4">
-        <v>264396</v>
+        <v>266147</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2701</v>
+        <v>2709</v>
       </c>
       <c r="C154" s="4">
         <v>92</v>
       </c>
       <c r="D154" s="4">
-        <v>1434</v>
+        <v>1505</v>
       </c>
       <c r="E154" s="4">
-        <v>4227</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>11071</v>
+        <v>11149</v>
       </c>
       <c r="C155" s="4">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D155" s="4">
-        <v>1540</v>
+        <v>1551</v>
       </c>
       <c r="E155" s="4">
-        <v>12766</v>
+        <v>12858</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2134</v>
+        <v>2146</v>
       </c>
       <c r="C156" s="4">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D156" s="4">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="E156" s="4">
-        <v>4071</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C157" s="4">
         <v>124</v>
       </c>
       <c r="D157" s="4">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E157" s="4">
-        <v>1682</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3729,10 +3729,10 @@
         <v>56</v>
       </c>
       <c r="D158" s="4">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="E158" s="4">
-        <v>2114</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>27485</v>
+        <v>27555</v>
       </c>
       <c r="C159" s="4">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D159" s="4">
-        <v>1810</v>
+        <v>1818</v>
       </c>
       <c r="E159" s="4">
-        <v>29927</v>
+        <v>30009</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>51490</v>
+        <v>51598</v>
       </c>
       <c r="C160" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D160" s="4">
-        <v>4777</v>
+        <v>4862</v>
       </c>
       <c r="E160" s="4">
-        <v>56567</v>
+        <v>56761</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2182</v>
+        <v>2186</v>
       </c>
       <c r="C161" s="4">
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>960</v>
+        <v>988</v>
       </c>
       <c r="E161" s="4">
-        <v>3179</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>203717</v>
+        <v>204058</v>
       </c>
       <c r="C162" s="4">
-        <v>9367</v>
+        <v>9382</v>
       </c>
       <c r="D162" s="4">
-        <v>41066</v>
+        <v>41363</v>
       </c>
       <c r="E162" s="4">
-        <v>254150</v>
+        <v>254803</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C163" s="4">
         <v>41</v>
@@ -3817,7 +3817,7 @@
         <v>45</v>
       </c>
       <c r="E163" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>24798</v>
+        <v>24910</v>
       </c>
       <c r="C164" s="4">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="D164" s="4">
-        <v>3883</v>
+        <v>3920</v>
       </c>
       <c r="E164" s="4">
-        <v>29697</v>
+        <v>29848</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,7 +3842,7 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
@@ -3851,7 +3851,7 @@
         <v>229</v>
       </c>
       <c r="E165" s="4">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>40430</v>
+        <v>40527</v>
       </c>
       <c r="C166" s="4">
-        <v>5239</v>
+        <v>5268</v>
       </c>
       <c r="D166" s="4">
-        <v>31059</v>
+        <v>31323</v>
       </c>
       <c r="E166" s="4">
-        <v>76728</v>
+        <v>77118</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>14312</v>
+        <v>14352</v>
       </c>
       <c r="C167" s="4">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D167" s="4">
-        <v>4767</v>
+        <v>4797</v>
       </c>
       <c r="E167" s="4">
-        <v>19901</v>
+        <v>19973</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3854</v>
+        <v>3860</v>
       </c>
       <c r="C168" s="4">
         <v>82</v>
       </c>
       <c r="D168" s="4">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E168" s="4">
-        <v>5053</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>4092</v>
+        <v>4099</v>
       </c>
       <c r="C169" s="4">
         <v>50</v>
       </c>
       <c r="D169" s="4">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="E169" s="4">
-        <v>6294</v>
+        <v>6304</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>9377</v>
+        <v>9405</v>
       </c>
       <c r="C170" s="4">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D170" s="4">
-        <v>2267</v>
+        <v>2275</v>
       </c>
       <c r="E170" s="4">
-        <v>12394</v>
+        <v>12434</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>308473</v>
+        <v>309382</v>
       </c>
       <c r="C171" s="4">
-        <v>15323</v>
+        <v>15382</v>
       </c>
       <c r="D171" s="4">
-        <v>30299</v>
+        <v>30670</v>
       </c>
       <c r="E171" s="4">
-        <v>354095</v>
+        <v>355434</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6901</v>
+        <v>6915</v>
       </c>
       <c r="C172" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D172" s="4">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="E172" s="4">
-        <v>9004</v>
+        <v>9023</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4989</v>
+        <v>5001</v>
       </c>
       <c r="C173" s="4">
         <v>649</v>
       </c>
       <c r="D173" s="4">
-        <v>3176</v>
+        <v>3195</v>
       </c>
       <c r="E173" s="4">
-        <v>8814</v>
+        <v>8845</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4001,10 +4001,10 @@
         <v>9</v>
       </c>
       <c r="D174" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E174" s="4">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>36204</v>
+        <v>36362</v>
       </c>
       <c r="C175" s="4">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="D175" s="4">
-        <v>4779</v>
+        <v>4807</v>
       </c>
       <c r="E175" s="4">
-        <v>42057</v>
+        <v>42246</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>22941</v>
+        <v>22980</v>
       </c>
       <c r="C176" s="4">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="D176" s="4">
-        <v>6803</v>
+        <v>6820</v>
       </c>
       <c r="E176" s="4">
-        <v>31226</v>
+        <v>31286</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3039</v>
+        <v>3066</v>
       </c>
       <c r="C177" s="4">
         <v>749</v>
       </c>
       <c r="D177" s="4">
-        <v>1631</v>
+        <v>1660</v>
       </c>
       <c r="E177" s="4">
-        <v>5419</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>7602</v>
+        <v>7606</v>
       </c>
       <c r="C178" s="4">
         <v>138</v>
       </c>
       <c r="D178" s="4">
-        <v>2541</v>
+        <v>2550</v>
       </c>
       <c r="E178" s="4">
-        <v>10281</v>
+        <v>10294</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>191371</v>
+        <v>192069</v>
       </c>
       <c r="C179" s="4">
-        <v>37560</v>
+        <v>37689</v>
       </c>
       <c r="D179" s="4">
-        <v>36694</v>
+        <v>37013</v>
       </c>
       <c r="E179" s="4">
-        <v>265625</v>
+        <v>266771</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,7 +4097,7 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C180" s="4">
         <v>182</v>
@@ -4106,7 +4106,7 @@
         <v>245</v>
       </c>
       <c r="E180" s="4">
-        <v>917</v>
+        <v>920</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C181" s="4">
         <v>215</v>
       </c>
       <c r="D181" s="4">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="E181" s="4">
-        <v>1127</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>24323</v>
+        <v>24396</v>
       </c>
       <c r="C182" s="4">
-        <v>5067</v>
+        <v>5082</v>
       </c>
       <c r="D182" s="4">
-        <v>7826</v>
+        <v>7872</v>
       </c>
       <c r="E182" s="4">
-        <v>37216</v>
+        <v>37350</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>12017</v>
+        <v>12058</v>
       </c>
       <c r="C183" s="4">
         <v>883</v>
       </c>
       <c r="D183" s="4">
-        <v>3901</v>
+        <v>3933</v>
       </c>
       <c r="E183" s="4">
-        <v>16801</v>
+        <v>16874</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7915</v>
+        <v>7934</v>
       </c>
       <c r="C184" s="4">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D184" s="4">
-        <v>2460</v>
+        <v>2512</v>
       </c>
       <c r="E184" s="4">
-        <v>11320</v>
+        <v>11394</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>59677</v>
+        <v>59869</v>
       </c>
       <c r="C185" s="4">
-        <v>5618</v>
+        <v>5633</v>
       </c>
       <c r="D185" s="4">
-        <v>13849</v>
+        <v>14023</v>
       </c>
       <c r="E185" s="4">
-        <v>79144</v>
+        <v>79525</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1744</v>
+        <v>1752</v>
       </c>
       <c r="C186" s="4">
         <v>209</v>
       </c>
       <c r="D186" s="4">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="E186" s="4">
-        <v>2963</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>9099</v>
+        <v>9107</v>
       </c>
       <c r="C187" s="4">
         <v>85</v>
       </c>
       <c r="D187" s="4">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="E187" s="4">
-        <v>10019</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>27784</v>
+        <v>27964</v>
       </c>
       <c r="C188" s="4">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D188" s="4">
-        <v>4474</v>
+        <v>4513</v>
       </c>
       <c r="E188" s="4">
-        <v>33350</v>
+        <v>33570</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>65534</v>
+        <v>65606</v>
       </c>
       <c r="C189" s="4">
-        <v>6052</v>
+        <v>6057</v>
       </c>
       <c r="D189" s="4">
-        <v>9278</v>
+        <v>9425</v>
       </c>
       <c r="E189" s="4">
-        <v>80864</v>
+        <v>81088</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7032</v>
+        <v>7035</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>1034</v>
+        <v>1056</v>
       </c>
       <c r="E190" s="4">
-        <v>8101</v>
+        <v>8126</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2487</v>
+        <v>2494</v>
       </c>
       <c r="C191" s="4">
         <v>370</v>
       </c>
       <c r="D191" s="4">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="E191" s="4">
-        <v>3381</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>41792</v>
+        <v>41933</v>
       </c>
       <c r="C192" s="4">
-        <v>12243</v>
+        <v>12260</v>
       </c>
       <c r="D192" s="4">
-        <v>8939</v>
+        <v>9077</v>
       </c>
       <c r="E192" s="4">
-        <v>62974</v>
+        <v>63270</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>28</v>
       </c>
       <c r="D193" s="4">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E193" s="4">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="C194" s="4">
         <v>64</v>
       </c>
       <c r="D194" s="4">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="E194" s="4">
-        <v>2214</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5301</v>
+        <v>5310</v>
       </c>
       <c r="C195" s="4">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D195" s="4">
-        <v>1281</v>
+        <v>1304</v>
       </c>
       <c r="E195" s="4">
-        <v>7063</v>
+        <v>7096</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>5670</v>
+        <v>5693</v>
       </c>
       <c r="C196" s="4">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D196" s="4">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="E196" s="4">
-        <v>6449</v>
+        <v>6497</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3627</v>
+        <v>3636</v>
       </c>
       <c r="C197" s="4">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D197" s="4">
-        <v>2428</v>
+        <v>2446</v>
       </c>
       <c r="E197" s="4">
-        <v>6403</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>10295</v>
+        <v>10332</v>
       </c>
       <c r="C199" s="4">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D199" s="4">
-        <v>5378</v>
+        <v>5423</v>
       </c>
       <c r="E199" s="4">
-        <v>15929</v>
+        <v>16014</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>64029</v>
+        <v>64353</v>
       </c>
       <c r="C200" s="4">
-        <v>4837</v>
+        <v>4846</v>
       </c>
       <c r="D200" s="4">
-        <v>4109</v>
+        <v>4170</v>
       </c>
       <c r="E200" s="4">
-        <v>72975</v>
+        <v>73369</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5325</v>
+        <v>5330</v>
       </c>
       <c r="C201" s="4">
         <v>141</v>
       </c>
       <c r="D201" s="4">
-        <v>2344</v>
+        <v>2349</v>
       </c>
       <c r="E201" s="4">
-        <v>7810</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>16291</v>
+        <v>16321</v>
       </c>
       <c r="C202" s="4">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="D202" s="4">
-        <v>1915</v>
+        <v>1940</v>
       </c>
       <c r="E202" s="4">
-        <v>20084</v>
+        <v>20147</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>5306</v>
+        <v>5318</v>
       </c>
       <c r="C203" s="4">
         <v>365</v>
       </c>
       <c r="D203" s="4">
-        <v>1715</v>
+        <v>1729</v>
       </c>
       <c r="E203" s="4">
-        <v>7386</v>
+        <v>7412</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4993</v>
+        <v>5041</v>
       </c>
       <c r="C204" s="4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D204" s="4">
-        <v>1819</v>
+        <v>1880</v>
       </c>
       <c r="E204" s="4">
-        <v>6878</v>
+        <v>6988</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>14086</v>
+        <v>14154</v>
       </c>
       <c r="C205" s="4">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="D205" s="4">
-        <v>2201</v>
+        <v>2239</v>
       </c>
       <c r="E205" s="4">
-        <v>17665</v>
+        <v>17774</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>26060</v>
+        <v>26192</v>
       </c>
       <c r="C206" s="4">
-        <v>6844</v>
+        <v>6870</v>
       </c>
       <c r="D206" s="4">
-        <v>12227</v>
+        <v>12352</v>
       </c>
       <c r="E206" s="4">
-        <v>45131</v>
+        <v>45414</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2476</v>
+        <v>2482</v>
       </c>
       <c r="C207" s="4">
         <v>77</v>
       </c>
       <c r="D207" s="4">
-        <v>1655</v>
+        <v>1692</v>
       </c>
       <c r="E207" s="4">
-        <v>4208</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E208" s="4">
-        <v>1186</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15559</v>
+        <v>15565</v>
       </c>
       <c r="C209" s="4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D209" s="4">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="E209" s="4">
-        <v>16282</v>
+        <v>16296</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4613,10 +4613,10 @@
         <v>65</v>
       </c>
       <c r="D210" s="4">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E210" s="4">
-        <v>1118</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10542</v>
+        <v>10555</v>
       </c>
       <c r="C211" s="4">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D211" s="4">
-        <v>2514</v>
+        <v>2551</v>
       </c>
       <c r="E211" s="4">
-        <v>13447</v>
+        <v>13499</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>158607</v>
+        <v>158832</v>
       </c>
       <c r="C213" s="4">
-        <v>8797</v>
+        <v>8808</v>
       </c>
       <c r="D213" s="4">
-        <v>16762</v>
+        <v>16915</v>
       </c>
       <c r="E213" s="4">
-        <v>184166</v>
+        <v>184555</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3751</v>
+        <v>3762</v>
       </c>
       <c r="C214" s="4">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D214" s="4">
-        <v>3694</v>
+        <v>3715</v>
       </c>
       <c r="E214" s="4">
-        <v>7804</v>
+        <v>7839</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>44076</v>
+        <v>44265</v>
       </c>
       <c r="C215" s="4">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D215" s="4">
-        <v>6006</v>
+        <v>6707</v>
       </c>
       <c r="E215" s="4">
-        <v>50613</v>
+        <v>51509</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2446</v>
+        <v>2450</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1508</v>
+        <v>1514</v>
       </c>
       <c r="E216" s="4">
-        <v>4083</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4749,10 +4749,10 @@
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E218" s="4">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4766,10 +4766,10 @@
         <v>27</v>
       </c>
       <c r="D219" s="4">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="E219" s="4">
-        <v>1822</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3225</v>
+        <v>3230</v>
       </c>
       <c r="C220" s="4">
         <v>256</v>
       </c>
       <c r="D220" s="4">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E220" s="4">
-        <v>4188</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1400737</v>
+        <v>1405703</v>
       </c>
       <c r="C221" s="4">
-        <v>84915</v>
+        <v>85115</v>
       </c>
       <c r="D221" s="4">
-        <v>136872</v>
+        <v>138106</v>
       </c>
       <c r="E221" s="4">
-        <v>1622524</v>
+        <v>1628924</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>77183</v>
+        <v>77235</v>
       </c>
       <c r="C222" s="4">
-        <v>3063</v>
+        <v>3078</v>
       </c>
       <c r="D222" s="4">
-        <v>35227</v>
+        <v>35379</v>
       </c>
       <c r="E222" s="4">
-        <v>115473</v>
+        <v>115692</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3008</v>
+        <v>3020</v>
       </c>
       <c r="C224" s="4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D224" s="4">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="E224" s="4">
-        <v>4101</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>25</v>
       </c>
       <c r="D225" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E225" s="4">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>20357</v>
+        <v>20396</v>
       </c>
       <c r="C226" s="4">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="D226" s="4">
-        <v>3047</v>
+        <v>3063</v>
       </c>
       <c r="E226" s="4">
-        <v>24472</v>
+        <v>24531</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>67813</v>
+        <v>67893</v>
       </c>
       <c r="C227" s="4">
-        <v>1446</v>
+        <v>1454</v>
       </c>
       <c r="D227" s="4">
-        <v>35203</v>
+        <v>35431</v>
       </c>
       <c r="E227" s="4">
-        <v>104462</v>
+        <v>104778</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>845982</v>
+        <v>849179</v>
       </c>
       <c r="C228" s="4">
-        <v>37830</v>
+        <v>37916</v>
       </c>
       <c r="D228" s="4">
-        <v>100527</v>
+        <v>101643</v>
       </c>
       <c r="E228" s="4">
-        <v>984339</v>
+        <v>988738</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>9407</v>
+        <v>9514</v>
       </c>
       <c r="C229" s="4">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D229" s="4">
-        <v>2233</v>
+        <v>2293</v>
       </c>
       <c r="E229" s="4">
-        <v>11858</v>
+        <v>12029</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7889</v>
+        <v>7970</v>
       </c>
       <c r="C230" s="4">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="D230" s="4">
-        <v>3758</v>
+        <v>3772</v>
       </c>
       <c r="E230" s="4">
-        <v>12489</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9480</v>
+        <v>9515</v>
       </c>
       <c r="C231" s="4">
-        <v>1900</v>
+        <v>1908</v>
       </c>
       <c r="D231" s="4">
-        <v>2964</v>
+        <v>2981</v>
       </c>
       <c r="E231" s="4">
-        <v>14344</v>
+        <v>14404</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C232" s="4">
         <v>66</v>
       </c>
       <c r="D232" s="4">
-        <v>1798</v>
+        <v>1804</v>
       </c>
       <c r="E232" s="4">
-        <v>2639</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>22069</v>
+        <v>22124</v>
       </c>
       <c r="C233" s="4">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D233" s="4">
-        <v>1057</v>
+        <v>1082</v>
       </c>
       <c r="E233" s="4">
-        <v>23476</v>
+        <v>23557</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>38392</v>
+        <v>38484</v>
       </c>
       <c r="C234" s="4">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="D234" s="4">
-        <v>6586</v>
+        <v>6953</v>
       </c>
       <c r="E234" s="4">
-        <v>46088</v>
+        <v>46552</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>16363</v>
+        <v>16429</v>
       </c>
       <c r="C235" s="4">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="D235" s="4">
-        <v>5072</v>
+        <v>5133</v>
       </c>
       <c r="E235" s="4">
-        <v>23117</v>
+        <v>23248</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>34859</v>
+        <v>34995</v>
       </c>
       <c r="C236" s="4">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="D236" s="4">
-        <v>11429</v>
+        <v>11520</v>
       </c>
       <c r="E236" s="4">
-        <v>47775</v>
+        <v>48007</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>87825</v>
+        <v>88308</v>
       </c>
       <c r="C237" s="4">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="D237" s="4">
-        <v>7273</v>
+        <v>7479</v>
       </c>
       <c r="E237" s="4">
-        <v>96191</v>
+        <v>96886</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>27459</v>
+        <v>27618</v>
       </c>
       <c r="C238" s="4">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="D238" s="4">
-        <v>1906</v>
+        <v>1983</v>
       </c>
       <c r="E238" s="4">
-        <v>30087</v>
+        <v>30332</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4151</v>
+        <v>4155</v>
       </c>
       <c r="C239" s="4">
         <v>123</v>
       </c>
       <c r="D239" s="4">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E239" s="4">
-        <v>4588</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>32291</v>
+        <v>32377</v>
       </c>
       <c r="C240" s="4">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D240" s="4">
-        <v>4287</v>
+        <v>4514</v>
       </c>
       <c r="E240" s="4">
-        <v>37103</v>
+        <v>37418</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>317184</v>
+        <v>318067</v>
       </c>
       <c r="C241" s="4">
-        <v>4225</v>
+        <v>4237</v>
       </c>
       <c r="D241" s="4">
-        <v>34451</v>
+        <v>37370</v>
       </c>
       <c r="E241" s="4">
-        <v>355860</v>
+        <v>359674</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>27793</v>
+        <v>27893</v>
       </c>
       <c r="C242" s="4">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D242" s="4">
-        <v>2098</v>
+        <v>2152</v>
       </c>
       <c r="E242" s="4">
-        <v>30631</v>
+        <v>30787</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C243" s="4">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D243" s="4">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="E243" s="4">
-        <v>3586</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>97256</v>
+        <v>97369</v>
       </c>
       <c r="C244" s="4">
-        <v>4948</v>
+        <v>4959</v>
       </c>
       <c r="D244" s="4">
-        <v>17414</v>
+        <v>17872</v>
       </c>
       <c r="E244" s="4">
-        <v>119618</v>
+        <v>120200</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10547</v>
+        <v>10555</v>
       </c>
       <c r="C245" s="4">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D245" s="4">
-        <v>3474</v>
+        <v>3477</v>
       </c>
       <c r="E245" s="4">
-        <v>14486</v>
+        <v>14499</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>20224</v>
+        <v>20372</v>
       </c>
       <c r="C246" s="4">
         <v>163</v>
       </c>
       <c r="D246" s="4">
-        <v>1173</v>
+        <v>1213</v>
       </c>
       <c r="E246" s="4">
-        <v>21560</v>
+        <v>21748</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>360073</v>
+        <v>361159</v>
       </c>
       <c r="C247" s="4">
-        <v>13499</v>
+        <v>13556</v>
       </c>
       <c r="D247" s="4">
-        <v>43334</v>
+        <v>43880</v>
       </c>
       <c r="E247" s="4">
-        <v>416906</v>
+        <v>418595</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>28132</v>
+        <v>28195</v>
       </c>
       <c r="C248" s="4">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="D248" s="4">
-        <v>5798</v>
+        <v>5835</v>
       </c>
       <c r="E248" s="4">
-        <v>34811</v>
+        <v>34913</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C249" s="4">
         <v>40</v>
       </c>
       <c r="D249" s="4">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E249" s="4">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>40471</v>
+        <v>40566</v>
       </c>
       <c r="C250" s="4">
-        <v>2972</v>
+        <v>2978</v>
       </c>
       <c r="D250" s="4">
-        <v>4452</v>
+        <v>4499</v>
       </c>
       <c r="E250" s="4">
-        <v>47895</v>
+        <v>48043</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14591</v>
+        <v>14718</v>
       </c>
       <c r="C251" s="4">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D251" s="4">
-        <v>2969</v>
+        <v>3016</v>
       </c>
       <c r="E251" s="4">
-        <v>19280</v>
+        <v>19455</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2105</v>
+        <v>2109</v>
       </c>
       <c r="C252" s="4">
         <v>85</v>
       </c>
       <c r="D252" s="4">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E252" s="4">
-        <v>2644</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>6246</v>
+        <v>6263</v>
       </c>
       <c r="C253" s="4">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D253" s="4">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="E253" s="4">
-        <v>8163</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>14958</v>
+        <v>15007</v>
       </c>
       <c r="C254" s="4">
         <v>119</v>
       </c>
       <c r="D254" s="4">
-        <v>3227</v>
+        <v>3244</v>
       </c>
       <c r="E254" s="4">
-        <v>18304</v>
+        <v>18370</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8741</v>
+        <v>8759</v>
       </c>
       <c r="C255" s="4">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D255" s="4">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="E255" s="4">
-        <v>9429</v>
+        <v>9464</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>129989</v>
+        <v>130099</v>
       </c>
       <c r="C256" s="4">
-        <v>7367</v>
+        <v>7379</v>
       </c>
       <c r="D256" s="4">
-        <v>3820</v>
+        <v>3861</v>
       </c>
       <c r="E256" s="4">
-        <v>141176</v>
+        <v>141339</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>19357913</v>
+        <v>19426513</v>
       </c>
       <c r="C257" s="4">
-        <v>1005419</v>
+        <v>1008485</v>
       </c>
       <c r="D257" s="4">
-        <v>2373470</v>
+        <v>2420865</v>
       </c>
       <c r="E257" s="4">
-        <v>22736802</v>
+        <v>22855863</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
